--- a/EmprestimoTeste/DataQueries/excelForward/~$MD_forwardCar_Api.xlsx
+++ b/EmprestimoTeste/DataQueries/excelForward/~$MD_forwardCar_Api.xlsx
@@ -53,6 +53,12 @@
     <t>Teste123 LTDA</t>
   </si>
   <si>
+    <t>fZimmer</t>
+  </si>
+  <si>
+    <t>luAlves</t>
+  </si>
+  <si>
     <t>Fernanda</t>
   </si>
   <si>
@@ -98,9 +104,6 @@
     <t>ZIP</t>
   </si>
   <si>
-    <t>alves12</t>
-  </si>
-  <si>
     <t>CarlosG</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>LOANAMOUNT</t>
-  </si>
-  <si>
-    <t>zimmer12</t>
   </si>
   <si>
     <t>LASTNAME</t>
@@ -300,11 +300,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -623,13 +623,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
@@ -643,9 +643,9 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4">
         <v>1234</v>
       </c>
     </row>
@@ -658,8 +658,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -687,28 +687,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>38</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -761,13 +761,13 @@
         <v>321</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5">
         <v>44959</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="R2" s="2">
         <v>1234</v>
@@ -799,13 +799,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -817,16 +817,16 @@
         <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3">
         <v>45354</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>36</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="R3" s="2">
         <v>1234</v>
